--- a/modelo.xlsx
+++ b/modelo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
-  <si>
-    <t>Patrimonio Liquido</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>Caixa</t>
   </si>
@@ -54,16 +52,44 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>Balanço partimonial</t>
+  </si>
+  <si>
+    <t>Ativo circulante</t>
+  </si>
+  <si>
+    <t>Passivo Circulante</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Ativo Não Circulante</t>
+  </si>
+  <si>
+    <t>Patrimonio Líquido</t>
+  </si>
+  <si>
+    <t>Total Ativo</t>
+  </si>
+  <si>
+    <t>Total Passivo</t>
+  </si>
+  <si>
+    <t>PL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,16 +119,88 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -246,125 +344,110 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -373,39 +456,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,126 +806,333 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="5.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="3" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="9"/>
+      <c r="I1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="24"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="14">
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="11">
         <v>1</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="E2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12">
+        <v>20000</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="26">
+        <f>SUM(J3:J7)</f>
+        <v>35000</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="36">
+        <f>SUM(L3:L4)</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="14">
+        <v>20000</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="19">
+        <v>20000</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="21">
+        <v>5000</v>
+      </c>
+      <c r="M3" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="17" t="str">
+        <f>IF(F2-F3&lt;&gt;0,F2-F3," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="19">
+        <v>10000</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="21">
+        <v>5000</v>
+      </c>
+      <c r="M4" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="19">
+        <v>5000</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="38">
+        <f>SUM(L6:L7)</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="11">
+        <v>2</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12">
+        <v>15000</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="21">
+        <v>10000</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="15">
+        <v>10000</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="21"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="F8" s="14">
+        <v>5000</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="28">
+        <f>SUM(J9:J11)</f>
+        <v>5000</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="30">
+        <f>SUM(L9:L11)</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="H9">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="I9" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="19">
+        <v>5000</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="21">
+        <v>20000</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="20"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="21"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="F11" s="12">
+        <v>5000</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="16">
+        <v>3</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="17">
-        <v>2</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="4"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="14">
-        <v>3</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="6"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="4"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="5"/>
+      <c r="F12" s="14">
+        <v>5000</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="32">
+        <f>J2+J8</f>
+        <v>40000</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="34">
+        <f>L2+L8+L5</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F13" t="str">
+        <f>IF(F11-F12&lt;&gt;0,F11-F12," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C11:E11"/>
+  <mergeCells count="1">
+    <mergeCell ref="I1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E2:E3 E7:E9 E12:E13">
+  <conditionalFormatting sqref="C2:D3 C11:D12 C6:D9">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
@@ -838,14 +1141,115 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erro" sqref="C2:C3 C12:C13 C7:C9">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erro" sqref="E2:E3 E11:E12 E6:E9 I3:I7 I9:I11 K9:K11 K3:K4 K6:K7">
       <formula1>$A$1:$A$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E12:E13 E7:E9">
-      <formula1>$B$1:$B$2</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C12 C2:C3 C6:C9">
+      <formula1>$B$1:$B$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="str">
+        <f>VLOOKUP(IF(Planilha1!$C2&lt;&gt;"C",Planilha1!$D2),Planilha1!$D$2:$F$12,2,0)</f>
+        <v>Caixa</v>
+      </c>
+      <c r="C3" s="18">
+        <f>VLOOKUP(IF(Planilha1!$C2&lt;&gt;"C",Planilha1!$D2),Planilha1!$D$2:$F$12,3,0)</f>
+        <v>20000</v>
+      </c>
+      <c r="D3" t="e">
+        <f>VLOOKUP(IF(Planilha1!$C2&lt;&gt;"D",Planilha1!$D2),Planilha1!$D$2:$F$12,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E3" s="18">
+        <f>VLOOKUP(IF(Planilha1!$E2&lt;&gt;"D",Planilha1!$D2),Planilha1!$D$2:$F$12,3,0)</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="e">
+        <f>VLOOKUP(IF(Planilha1!$C3&lt;&gt;"C",Planilha1!$D3),Planilha1!$D$2:$F$12,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D4" t="str">
+        <f>VLOOKUP(IF(Planilha1!$C3&lt;&gt;"D",Planilha1!$D3),Planilha1!$D$2:$F$12,2,0)</f>
+        <v>Caixa</v>
+      </c>
+      <c r="E4">
+        <f>VLOOKUP(IF(Planilha1!$C3&lt;&gt;"D",Planilha1!$D3),Planilha1!$D$2:$F$12,3,0)</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="e">
+        <f>VLOOKUP(IF(Planilha1!$C4&lt;&gt;"C",Planilha1!$D4),Planilha1!$D$2:$F$12,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="e">
+        <f>VLOOKUP(IF(Planilha1!$C5&lt;&gt;"C",Planilha1!$D5),Planilha1!$D$2:$F$12,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="e">
+        <f>VLOOKUP(IF(Planilha1!$C6&lt;&gt;"C",Planilha1!$D6),Planilha1!$D$2:$F$12,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="str">
+        <f>VLOOKUP(IF(Planilha1!$C7&lt;&gt;"C",Planilha1!$D7),Planilha1!$D$2:$F$12,2,0)</f>
+        <v>Emprestimo</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="str">
+        <f>VLOOKUP(IF(Planilha1!$C8&lt;&gt;"C",Planilha1!$D8),Planilha1!$D$2:$F$12,2,0)</f>
+        <v>Emprestimo</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="e">
+        <f>VLOOKUP(IF(Planilha1!$C10&lt;&gt;"C",Planilha1!$D10),Planilha1!$D$2:$F$12,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/modelo.xlsx
+++ b/modelo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\angular\projeto_tcc_ferramenta_contabil\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -479,15 +479,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="6" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -502,6 +493,15 @@
     <xf numFmtId="164" fontId="0" fillId="9" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,12 +839,12 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="9"/>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="24"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="38"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -865,17 +865,17 @@
       <c r="F2" s="12">
         <v>20000</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="23">
         <f>SUM(J3:J7)</f>
         <v>35000</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="36">
+      <c r="L2" s="33">
         <f>SUM(L3:L4)</f>
         <v>10000</v>
       </c>
@@ -955,10 +955,10 @@
       <c r="J5" s="19">
         <v>5000</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5" s="35">
         <f>SUM(L6:L7)</f>
         <v>10000</v>
       </c>
@@ -1032,17 +1032,17 @@
       <c r="F8" s="14">
         <v>5000</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="25">
         <f>SUM(J9:J11)</f>
         <v>5000</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="27">
         <f>SUM(L9:L11)</f>
         <v>20000</v>
       </c>
@@ -1107,17 +1107,17 @@
       <c r="F12" s="14">
         <v>5000</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="29">
         <f>J2+J8</f>
         <v>40000</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="K12" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="34">
+      <c r="L12" s="31">
         <f>L2+L8+L5</f>
         <v>40000</v>
       </c>
